--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -724,6 +724,10 @@
   </si>
   <si>
     <t>イッパンイチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>null</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1408,7 +1412,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3668,7 +3672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5699,7 +5705,9 @@
       <c r="I19" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="43" t="s">
+        <v>134</v>
+      </c>
       <c r="K19" s="44" t="s">
         <v>80</v>
       </c>

--- a/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ProjectUploadActionRequestTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="16380" windowHeight="8100" tabRatio="766" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="setUpDb" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="129">
   <si>
     <t>1</t>
     <phoneticPr fontId="2"/>
@@ -154,18 +154,11 @@
     <t>PROJECT_END_DATE</t>
   </si>
   <si>
-    <t>CLIENT_ID</t>
-  </si>
-  <si>
     <t>PROJECT_MANAGER</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PROJECT_LEADER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -200,10 +193,6 @@
   </si>
   <si>
     <t>SETUP_TABLE=PROJECT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CLIENT_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -359,19 +348,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CLIENT_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PROJECT_MANAGER</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>PROJECT_LEADER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -588,10 +569,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LOGIN_ID</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -703,10 +680,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>KANJI_NAME</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -725,6 +698,12 @@
   <si>
     <t>イッパンイチ</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_NUM</t>
+  </si>
+  <si>
+    <t>CLIENT_NUM</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1387,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -1440,13 +1419,13 @@
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1457,64 +1436,64 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="H5" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="I5" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="J5" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="H6" s="52" t="s">
         <v>119</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>125</v>
       </c>
       <c r="I6" s="53"/>
       <c r="J6" s="52" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
@@ -1531,7 +1510,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1542,13 +1521,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -1559,13 +1538,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="32" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -1576,7 +1555,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -1614,71 +1593,71 @@
         <v>27</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="L13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="M13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="N13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="O13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="P13" s="28" t="s">
         <v>35</v>
-      </c>
-      <c r="O13" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1686,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1689,7 @@
   <dimension ref="A1:IV17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -2030,13 +2009,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>3</v>
@@ -2044,7 +2023,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -2575,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -2833,13 +2812,13 @@
     </row>
     <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -3097,7 +3076,7 @@
     </row>
     <row r="10" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="9"/>
@@ -3387,7 +3366,7 @@
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3646,7 +3625,7 @@
     </row>
     <row r="17" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -3668,7 +3647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3975,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -3990,24 +3971,24 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -4794,7 +4775,7 @@
     </row>
     <row r="9" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>19</v>
@@ -5333,7 +5314,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -5343,12 +5324,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:256" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5607,7 +5588,7 @@
     </row>
     <row r="17" spans="1:15" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -5626,94 +5607,94 @@
     </row>
     <row r="18" spans="1:15" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="E18" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="F18" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="H18" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="I18" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="K18" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="M18" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="N18" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="O18" s="42" t="s">
         <v>68</v>
-      </c>
-      <c r="K18" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N18" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="44" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G19" s="43" t="s">
-        <v>81</v>
-      </c>
       <c r="H19" s="43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J19" s="43"/>
       <c r="K19" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L19" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N19" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5732,8 +5713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleSheetLayoutView="10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
@@ -6041,7 +6022,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>12</v>
@@ -6056,107 +6037,107 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G4" s="46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G6" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:256" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:256" s="21" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
@@ -6943,7 +6924,7 @@
     </row>
     <row r="12" spans="1:256" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>19</v>
@@ -7482,7 +7463,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -7492,36 +7473,36 @@
         <v>1</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="31" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:255" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:255" s="6" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -7780,7 +7761,7 @@
     </row>
     <row r="22" spans="1:255" s="41" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
@@ -7799,49 +7780,49 @@
     </row>
     <row r="23" spans="1:255" s="41" customFormat="1" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="E23" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="F23" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="H23" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="I23" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="K23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="42" t="s">
+      <c r="L23" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="M23" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="N23" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="O23" s="42" t="s">
         <v>68</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
